--- a/Assignments/Simina-Dan-Marius_Tema1.xlsx
+++ b/Assignments/Simina-Dan-Marius_Tema1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Facultate\SSC\Structure-of-Computer-Systems-Labs\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16655238-AE2B-48B9-B50C-0AFC19C079D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98C7F07-583C-4F6B-A47B-762E163BB877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1D818CED-8517-412F-B847-EA1DE22B53B6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Upper limit</t>
   </si>
@@ -133,6 +133,57 @@
   <si>
     <t>Exercitiile 1 si 2 din laboratorul 2:</t>
   </si>
+  <si>
+    <t>Exercitiul 1:</t>
+  </si>
+  <si>
+    <t>Measurement number</t>
+  </si>
+  <si>
+    <t>CPUID execution time (clock cycles)</t>
+  </si>
+  <si>
+    <t>Average time</t>
+  </si>
+  <si>
+    <t>ADD (reg)</t>
+  </si>
+  <si>
+    <t>ADD (var)</t>
+  </si>
+  <si>
+    <t>MULL</t>
+  </si>
+  <si>
+    <t>FDIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average time:</t>
+  </si>
+  <si>
+    <t>FSUB</t>
+  </si>
+  <si>
+    <t>Exercitiul 2:</t>
+  </si>
+  <si>
+    <t>Measurment number</t>
+  </si>
+  <si>
+    <t>Average time:</t>
+  </si>
+  <si>
+    <t>rdtsc time (clock cycles)</t>
+  </si>
+  <si>
+    <t>clock time (clock cycles)</t>
+  </si>
+  <si>
+    <t>static array</t>
+  </si>
+  <si>
+    <t>dynamic array</t>
+  </si>
 </sst>
 </file>
 
@@ -173,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -255,11 +306,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -268,6 +404,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -279,17 +421,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5273,56 +5466,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD50B70-FD92-48AC-B906-80C36613CDF1}">
-  <dimension ref="A1:J150"/>
+  <dimension ref="A1:J188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:J58"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="J183" sqref="J183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="16"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" s="29" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:9" s="27" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="27" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5331,16 +5532,16 @@
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
@@ -5517,138 +5718,601 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="58" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
     </row>
     <row r="78" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
     </row>
     <row r="100" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
     </row>
     <row r="120" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="11"/>
-      <c r="J120" s="11"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
     </row>
     <row r="142" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="11" t="s">
+      <c r="A142" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
-      <c r="I142" s="11"/>
-      <c r="J142" s="11"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
     </row>
     <row r="145" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="11" t="s">
+      <c r="A145" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="11"/>
-      <c r="J145" s="11"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
     </row>
-    <row r="150" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A150" s="8" t="s">
+    <row r="150" spans="1:10" s="27" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A150" s="27" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A152" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B154" s="14"/>
+      <c r="C154" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D154" s="14"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A155" s="11">
+        <v>1</v>
+      </c>
+      <c r="B155" s="12"/>
+      <c r="C155" s="11">
+        <v>1306</v>
+      </c>
+      <c r="D155" s="12"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A156" s="11">
+        <v>2</v>
+      </c>
+      <c r="B156" s="12"/>
+      <c r="C156" s="11">
+        <v>1282</v>
+      </c>
+      <c r="D156" s="12"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A157" s="11">
+        <v>3</v>
+      </c>
+      <c r="B157" s="12"/>
+      <c r="C157" s="11">
+        <v>1307</v>
+      </c>
+      <c r="D157" s="12"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A158" s="11">
+        <v>4</v>
+      </c>
+      <c r="B158" s="12"/>
+      <c r="C158" s="11">
+        <v>1306</v>
+      </c>
+      <c r="D158" s="12"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A159" s="11">
+        <v>5</v>
+      </c>
+      <c r="B159" s="12"/>
+      <c r="C159" s="11">
+        <v>1330</v>
+      </c>
+      <c r="D159" s="12"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A160" s="11">
+        <v>6</v>
+      </c>
+      <c r="B160" s="12"/>
+      <c r="C160" s="11">
+        <v>1306</v>
+      </c>
+      <c r="D160" s="12"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" s="11">
+        <v>7</v>
+      </c>
+      <c r="B161" s="12"/>
+      <c r="C161" s="11">
+        <v>1353</v>
+      </c>
+      <c r="D161" s="12"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162" s="11">
+        <v>8</v>
+      </c>
+      <c r="B162" s="12"/>
+      <c r="C162" s="11">
+        <v>1330</v>
+      </c>
+      <c r="D162" s="12"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163" s="11">
+        <v>9</v>
+      </c>
+      <c r="B163" s="12"/>
+      <c r="C163" s="11">
+        <v>1520</v>
+      </c>
+      <c r="D163" s="12"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" s="11">
+        <v>10</v>
+      </c>
+      <c r="B164" s="12"/>
+      <c r="C164" s="11">
+        <v>1306</v>
+      </c>
+      <c r="D164" s="12"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B165" s="12"/>
+      <c r="C165" s="11">
+        <f>AVERAGE(C155:D164)</f>
+        <v>1334.6</v>
+      </c>
+      <c r="D165" s="12"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" s="11"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="12"/>
+    </row>
+    <row r="169" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B169" s="17"/>
+      <c r="C169" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170" s="11">
+        <v>1</v>
+      </c>
+      <c r="B170" s="12"/>
+      <c r="C170" s="9">
+        <v>25</v>
+      </c>
+      <c r="D170" s="9">
+        <v>0</v>
+      </c>
+      <c r="E170" s="9">
+        <v>47</v>
+      </c>
+      <c r="F170" s="9">
+        <v>95</v>
+      </c>
+      <c r="G170" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" s="11">
+        <v>2</v>
+      </c>
+      <c r="B171" s="12"/>
+      <c r="C171" s="9">
+        <v>24</v>
+      </c>
+      <c r="D171" s="9">
+        <v>24</v>
+      </c>
+      <c r="E171" s="9">
+        <v>48</v>
+      </c>
+      <c r="F171" s="9">
+        <v>96</v>
+      </c>
+      <c r="G171" s="9">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172" s="11">
+        <v>3</v>
+      </c>
+      <c r="B172" s="12"/>
+      <c r="C172" s="9">
+        <v>0</v>
+      </c>
+      <c r="D172" s="9">
+        <v>0</v>
+      </c>
+      <c r="E172" s="9">
+        <v>48</v>
+      </c>
+      <c r="F172" s="9">
+        <v>94</v>
+      </c>
+      <c r="G172" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" s="11">
+        <v>4</v>
+      </c>
+      <c r="B173" s="12"/>
+      <c r="C173" s="9">
+        <v>24</v>
+      </c>
+      <c r="D173" s="9">
+        <v>23</v>
+      </c>
+      <c r="E173" s="9">
+        <v>71</v>
+      </c>
+      <c r="F173" s="9">
+        <v>72</v>
+      </c>
+      <c r="G173" s="9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" s="11">
+        <v>5</v>
+      </c>
+      <c r="B174" s="12"/>
+      <c r="C174" s="9">
+        <v>190</v>
+      </c>
+      <c r="D174" s="9">
+        <v>0</v>
+      </c>
+      <c r="E174" s="9">
+        <v>0</v>
+      </c>
+      <c r="F174" s="9">
+        <v>95</v>
+      </c>
+      <c r="G174" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B175" s="12"/>
+      <c r="C175" s="9">
+        <f>AVERAGE(C170:C174)</f>
+        <v>52.6</v>
+      </c>
+      <c r="D175" s="9">
+        <f t="shared" ref="D175:G175" si="0">AVERAGE(D170:D174)</f>
+        <v>9.4</v>
+      </c>
+      <c r="E175" s="9">
+        <f t="shared" si="0"/>
+        <v>42.8</v>
+      </c>
+      <c r="F175" s="9">
+        <f t="shared" si="0"/>
+        <v>90.4</v>
+      </c>
+      <c r="G175" s="9">
+        <f t="shared" si="0"/>
+        <v>2731.6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="9.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B180" s="24"/>
+      <c r="C180" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D180" s="21"/>
+      <c r="E180" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F180" s="21"/>
+      <c r="G180" s="18"/>
+    </row>
+    <row r="181" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="25"/>
+      <c r="B181" s="26"/>
+      <c r="C181" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D181" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E181" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F181" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G181" s="18"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" s="11">
+        <v>1</v>
+      </c>
+      <c r="B182" s="12"/>
+      <c r="C182" s="9">
+        <v>0</v>
+      </c>
+      <c r="D182" s="9">
+        <v>166</v>
+      </c>
+      <c r="E182" s="15">
+        <v>48972</v>
+      </c>
+      <c r="F182" s="9"/>
+      <c r="G182" s="18"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183" s="11">
+        <v>2</v>
+      </c>
+      <c r="B183" s="12"/>
+      <c r="C183" s="9">
+        <v>0</v>
+      </c>
+      <c r="D183" s="9">
+        <v>166</v>
+      </c>
+      <c r="E183" s="15">
+        <v>61275</v>
+      </c>
+      <c r="F183" s="9"/>
+      <c r="G183" s="18"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" s="11">
+        <v>3</v>
+      </c>
+      <c r="B184" s="12"/>
+      <c r="C184" s="9">
+        <v>1</v>
+      </c>
+      <c r="D184" s="9">
+        <v>166</v>
+      </c>
+      <c r="E184" s="15">
+        <v>106625</v>
+      </c>
+      <c r="F184" s="9"/>
+      <c r="G184" s="18"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185" s="11">
+        <v>4</v>
+      </c>
+      <c r="B185" s="12"/>
+      <c r="C185" s="9">
+        <v>1</v>
+      </c>
+      <c r="D185" s="9">
+        <v>190</v>
+      </c>
+      <c r="E185" s="15">
+        <v>87732</v>
+      </c>
+      <c r="F185" s="9"/>
+      <c r="G185" s="18"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186" s="11">
+        <v>5</v>
+      </c>
+      <c r="B186" s="12"/>
+      <c r="C186" s="9">
+        <v>0</v>
+      </c>
+      <c r="D186" s="9">
+        <v>166</v>
+      </c>
+      <c r="E186" s="15">
+        <v>53698</v>
+      </c>
+      <c r="F186" s="9"/>
+      <c r="G186" s="18"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B187" s="10"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="18"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188" s="19"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="18"/>
+      <c r="E188" s="18"/>
+      <c r="F188" s="18"/>
+      <c r="G188" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="52">
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="A28:XFD28"/>
+    <mergeCell ref="A150:XFD150"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A180:B181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A157:B157"/>
     <mergeCell ref="A142:J142"/>
     <mergeCell ref="A145:J145"/>
     <mergeCell ref="B30:I30"/>

--- a/Assignments/Simina-Dan-Marius_Tema1.xlsx
+++ b/Assignments/Simina-Dan-Marius_Tema1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Facultate\SSC\Structure-of-Computer-Systems-Labs\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98C7F07-583C-4F6B-A47B-762E163BB877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F0A2D7-D80E-410A-9B78-62BFD29A9F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1D818CED-8517-412F-B847-EA1DE22B53B6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Upper limit</t>
   </si>
@@ -184,6 +184,21 @@
   <si>
     <t>dynamic array</t>
   </si>
+  <si>
+    <t>Array length</t>
+  </si>
+  <si>
+    <t>Initial sort time (clock cycles)</t>
+  </si>
+  <si>
+    <t>Optimized sort time (clock cycles)</t>
+  </si>
+  <si>
+    <t>Array length (static)</t>
+  </si>
+  <si>
+    <t>Array length (dynamic)</t>
+  </si>
 </sst>
 </file>
 
@@ -224,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -391,11 +406,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -407,6 +448,66 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -421,68 +522,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5466,64 +5522,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD50B70-FD92-48AC-B906-80C36613CDF1}">
-  <dimension ref="A1:J188"/>
+  <dimension ref="A1:R196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="J183" sqref="J183"/>
+    <sheetView tabSelected="1" topLeftCell="H181" workbookViewId="0">
+      <selection activeCell="K202" sqref="K202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="16"/>
+    <col min="1" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="29" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="27" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:9" s="13" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5532,16 +5588,16 @@
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
     </row>
     <row r="31" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
@@ -5751,528 +5807,812 @@
       <c r="I39" s="4"/>
     </row>
     <row r="58" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
     </row>
     <row r="78" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
     </row>
     <row r="100" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
     </row>
     <row r="120" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="25"/>
+      <c r="H120" s="25"/>
+      <c r="I120" s="25"/>
+      <c r="J120" s="25"/>
     </row>
     <row r="142" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="25"/>
+      <c r="F142" s="25"/>
+      <c r="G142" s="25"/>
+      <c r="H142" s="25"/>
+      <c r="I142" s="25"/>
+      <c r="J142" s="25"/>
     </row>
     <row r="145" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="25"/>
+      <c r="E145" s="25"/>
+      <c r="F145" s="25"/>
+      <c r="G145" s="25"/>
+      <c r="H145" s="25"/>
+      <c r="I145" s="25"/>
+      <c r="J145" s="25"/>
     </row>
-    <row r="150" spans="1:10" s="27" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A150" s="27" t="s">
+    <row r="150" spans="1:10" s="13" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A150" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A152" s="16" t="s">
+      <c r="A152" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="13" t="s">
+      <c r="A154" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B154" s="14"/>
-      <c r="C154" s="13" t="s">
+      <c r="B154" s="24"/>
+      <c r="C154" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D154" s="14"/>
+      <c r="D154" s="24"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A155" s="11">
+      <c r="A155" s="14">
         <v>1</v>
       </c>
-      <c r="B155" s="12"/>
-      <c r="C155" s="11">
+      <c r="B155" s="15"/>
+      <c r="C155" s="14">
         <v>1306</v>
       </c>
-      <c r="D155" s="12"/>
+      <c r="D155" s="15"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A156" s="11">
+      <c r="A156" s="14">
         <v>2</v>
       </c>
-      <c r="B156" s="12"/>
-      <c r="C156" s="11">
+      <c r="B156" s="15"/>
+      <c r="C156" s="14">
         <v>1282</v>
       </c>
-      <c r="D156" s="12"/>
+      <c r="D156" s="15"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A157" s="11">
+      <c r="A157" s="14">
         <v>3</v>
       </c>
-      <c r="B157" s="12"/>
-      <c r="C157" s="11">
+      <c r="B157" s="15"/>
+      <c r="C157" s="14">
         <v>1307</v>
       </c>
-      <c r="D157" s="12"/>
+      <c r="D157" s="15"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A158" s="11">
+      <c r="A158" s="14">
         <v>4</v>
       </c>
-      <c r="B158" s="12"/>
-      <c r="C158" s="11">
+      <c r="B158" s="15"/>
+      <c r="C158" s="14">
         <v>1306</v>
       </c>
-      <c r="D158" s="12"/>
+      <c r="D158" s="15"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A159" s="11">
+      <c r="A159" s="14">
         <v>5</v>
       </c>
-      <c r="B159" s="12"/>
-      <c r="C159" s="11">
+      <c r="B159" s="15"/>
+      <c r="C159" s="14">
         <v>1330</v>
       </c>
-      <c r="D159" s="12"/>
+      <c r="D159" s="15"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A160" s="11">
+      <c r="A160" s="14">
         <v>6</v>
       </c>
-      <c r="B160" s="12"/>
-      <c r="C160" s="11">
+      <c r="B160" s="15"/>
+      <c r="C160" s="14">
         <v>1306</v>
       </c>
-      <c r="D160" s="12"/>
+      <c r="D160" s="15"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="11">
+      <c r="A161" s="14">
         <v>7</v>
       </c>
-      <c r="B161" s="12"/>
-      <c r="C161" s="11">
+      <c r="B161" s="15"/>
+      <c r="C161" s="14">
         <v>1353</v>
       </c>
-      <c r="D161" s="12"/>
+      <c r="D161" s="15"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="11">
+      <c r="A162" s="14">
         <v>8</v>
       </c>
-      <c r="B162" s="12"/>
-      <c r="C162" s="11">
+      <c r="B162" s="15"/>
+      <c r="C162" s="14">
         <v>1330</v>
       </c>
-      <c r="D162" s="12"/>
+      <c r="D162" s="15"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" s="11">
+      <c r="A163" s="14">
         <v>9</v>
       </c>
-      <c r="B163" s="12"/>
-      <c r="C163" s="11">
+      <c r="B163" s="15"/>
+      <c r="C163" s="14">
         <v>1520</v>
       </c>
-      <c r="D163" s="12"/>
+      <c r="D163" s="15"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" s="11">
+      <c r="A164" s="14">
         <v>10</v>
       </c>
-      <c r="B164" s="12"/>
-      <c r="C164" s="11">
+      <c r="B164" s="15"/>
+      <c r="C164" s="14">
         <v>1306</v>
       </c>
-      <c r="D164" s="12"/>
+      <c r="D164" s="15"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="11" t="s">
+      <c r="A165" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B165" s="12"/>
-      <c r="C165" s="11">
+      <c r="B165" s="15"/>
+      <c r="C165" s="14">
         <f>AVERAGE(C155:D164)</f>
         <v>1334.6</v>
       </c>
-      <c r="D165" s="12"/>
+      <c r="D165" s="15"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="11"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="12"/>
+      <c r="A166" s="14"/>
+      <c r="B166" s="15"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="15"/>
     </row>
     <row r="169" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="17" t="s">
+      <c r="A169" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B169" s="17"/>
-      <c r="C169" s="9" t="s">
+      <c r="B169" s="22"/>
+      <c r="C169" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D169" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E169" s="9" t="s">
+      <c r="E169" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F169" s="9" t="s">
+      <c r="F169" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G169" s="9" t="s">
+      <c r="G169" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="11">
+      <c r="A170" s="14">
         <v>1</v>
       </c>
-      <c r="B170" s="12"/>
-      <c r="C170" s="9">
+      <c r="B170" s="15"/>
+      <c r="C170" s="5">
         <v>25</v>
       </c>
-      <c r="D170" s="9">
+      <c r="D170" s="5">
         <v>0</v>
       </c>
-      <c r="E170" s="9">
+      <c r="E170" s="5">
         <v>47</v>
       </c>
-      <c r="F170" s="9">
+      <c r="F170" s="5">
         <v>95</v>
       </c>
-      <c r="G170" s="9">
+      <c r="G170" s="5">
         <v>95</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" s="11">
+      <c r="A171" s="14">
         <v>2</v>
       </c>
-      <c r="B171" s="12"/>
-      <c r="C171" s="9">
+      <c r="B171" s="15"/>
+      <c r="C171" s="5">
         <v>24</v>
       </c>
-      <c r="D171" s="9">
+      <c r="D171" s="5">
         <v>24</v>
       </c>
-      <c r="E171" s="9">
+      <c r="E171" s="5">
         <v>48</v>
       </c>
-      <c r="F171" s="9">
+      <c r="F171" s="5">
         <v>96</v>
       </c>
-      <c r="G171" s="9">
+      <c r="G171" s="5">
         <v>13300</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A172" s="11">
+      <c r="A172" s="14">
         <v>3</v>
       </c>
-      <c r="B172" s="12"/>
-      <c r="C172" s="9">
+      <c r="B172" s="15"/>
+      <c r="C172" s="5">
         <v>0</v>
       </c>
-      <c r="D172" s="9">
+      <c r="D172" s="5">
         <v>0</v>
       </c>
-      <c r="E172" s="9">
+      <c r="E172" s="5">
         <v>48</v>
       </c>
-      <c r="F172" s="9">
+      <c r="F172" s="5">
         <v>94</v>
       </c>
-      <c r="G172" s="9">
+      <c r="G172" s="5">
         <v>72</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="11">
+      <c r="A173" s="14">
         <v>4</v>
       </c>
-      <c r="B173" s="12"/>
-      <c r="C173" s="9">
+      <c r="B173" s="15"/>
+      <c r="C173" s="5">
         <v>24</v>
       </c>
-      <c r="D173" s="9">
+      <c r="D173" s="5">
         <v>23</v>
       </c>
-      <c r="E173" s="9">
+      <c r="E173" s="5">
         <v>71</v>
       </c>
-      <c r="F173" s="9">
+      <c r="F173" s="5">
         <v>72</v>
       </c>
-      <c r="G173" s="9">
+      <c r="G173" s="5">
         <v>96</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="11">
+      <c r="A174" s="14">
         <v>5</v>
       </c>
-      <c r="B174" s="12"/>
-      <c r="C174" s="9">
+      <c r="B174" s="15"/>
+      <c r="C174" s="5">
         <v>190</v>
       </c>
-      <c r="D174" s="9">
+      <c r="D174" s="5">
         <v>0</v>
       </c>
-      <c r="E174" s="9">
+      <c r="E174" s="5">
         <v>0</v>
       </c>
-      <c r="F174" s="9">
+      <c r="F174" s="5">
         <v>95</v>
       </c>
-      <c r="G174" s="9">
+      <c r="G174" s="5">
         <v>95</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" s="11" t="s">
+      <c r="A175" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B175" s="12"/>
-      <c r="C175" s="9">
+      <c r="B175" s="15"/>
+      <c r="C175" s="5">
         <f>AVERAGE(C170:C174)</f>
         <v>52.6</v>
       </c>
-      <c r="D175" s="9">
+      <c r="D175" s="5">
         <f t="shared" ref="D175:G175" si="0">AVERAGE(D170:D174)</f>
         <v>9.4</v>
       </c>
-      <c r="E175" s="9">
+      <c r="E175" s="5">
         <f t="shared" si="0"/>
         <v>42.8</v>
       </c>
-      <c r="F175" s="9">
+      <c r="F175" s="5">
         <f t="shared" si="0"/>
         <v>90.4</v>
       </c>
-      <c r="G175" s="9">
+      <c r="G175" s="5">
         <f t="shared" si="0"/>
         <v>2731.6</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" s="16" t="s">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A178" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="9.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="23" t="s">
+    <row r="179" spans="1:18" ht="9.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" spans="1:18" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B180" s="24"/>
-      <c r="C180" s="20" t="s">
+      <c r="B180" s="19"/>
+      <c r="C180" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D180" s="21"/>
-      <c r="E180" s="20" t="s">
+      <c r="D180" s="12"/>
+      <c r="E180" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F180" s="21"/>
-      <c r="G180" s="18"/>
+      <c r="F180" s="12"/>
     </row>
-    <row r="181" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="25"/>
-      <c r="B181" s="26"/>
-      <c r="C181" s="22" t="s">
+    <row r="181" spans="1:18" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="20"/>
+      <c r="B181" s="21"/>
+      <c r="C181" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D181" s="22" t="s">
+      <c r="D181" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E181" s="22" t="s">
+      <c r="E181" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F181" s="22" t="s">
+      <c r="F181" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G181" s="18"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A182" s="11">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A182" s="14">
         <v>1</v>
       </c>
-      <c r="B182" s="12"/>
-      <c r="C182" s="9">
+      <c r="B182" s="15"/>
+      <c r="C182" s="5">
+        <v>47</v>
+      </c>
+      <c r="D182" s="5">
+        <v>32181</v>
+      </c>
+      <c r="E182" s="6">
         <v>0</v>
       </c>
-      <c r="D182" s="9">
-        <v>166</v>
-      </c>
-      <c r="E182" s="15">
-        <v>48972</v>
-      </c>
-      <c r="F182" s="9"/>
-      <c r="G182" s="18"/>
+      <c r="F182" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A183" s="11">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A183" s="14">
         <v>2</v>
       </c>
-      <c r="B183" s="12"/>
-      <c r="C183" s="9">
+      <c r="B183" s="15"/>
+      <c r="C183" s="5">
+        <v>23</v>
+      </c>
+      <c r="D183" s="5">
+        <v>32490</v>
+      </c>
+      <c r="E183" s="6">
         <v>0</v>
       </c>
-      <c r="D183" s="9">
-        <v>166</v>
-      </c>
-      <c r="E183" s="15">
-        <v>61275</v>
-      </c>
-      <c r="F183" s="9"/>
-      <c r="G183" s="18"/>
+      <c r="F183" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A184" s="11">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A184" s="14">
         <v>3</v>
       </c>
-      <c r="B184" s="12"/>
-      <c r="C184" s="9">
-        <v>1</v>
-      </c>
-      <c r="D184" s="9">
-        <v>166</v>
-      </c>
-      <c r="E184" s="15">
-        <v>106625</v>
-      </c>
-      <c r="F184" s="9"/>
-      <c r="G184" s="18"/>
+      <c r="B184" s="15"/>
+      <c r="C184" s="5">
+        <v>48</v>
+      </c>
+      <c r="D184" s="5">
+        <v>33440</v>
+      </c>
+      <c r="E184" s="6">
+        <v>0</v>
+      </c>
+      <c r="F184" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A185" s="11">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A185" s="14">
         <v>4</v>
       </c>
-      <c r="B185" s="12"/>
-      <c r="C185" s="9">
-        <v>1</v>
-      </c>
-      <c r="D185" s="9">
-        <v>190</v>
-      </c>
-      <c r="E185" s="15">
-        <v>87732</v>
-      </c>
-      <c r="F185" s="9"/>
-      <c r="G185" s="18"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="5">
+        <v>23</v>
+      </c>
+      <c r="D185" s="5">
+        <v>31279</v>
+      </c>
+      <c r="E185" s="6">
+        <v>0</v>
+      </c>
+      <c r="F185" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" s="11">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A186" s="14">
         <v>5</v>
       </c>
-      <c r="B186" s="12"/>
-      <c r="C186" s="9">
+      <c r="B186" s="15"/>
+      <c r="C186" s="5">
+        <v>47</v>
+      </c>
+      <c r="D186" s="5">
+        <v>31991</v>
+      </c>
+      <c r="E186" s="6">
         <v>0</v>
       </c>
-      <c r="D186" s="9">
-        <v>166</v>
-      </c>
-      <c r="E186" s="15">
-        <v>53698</v>
-      </c>
-      <c r="F186" s="9"/>
-      <c r="G186" s="18"/>
+      <c r="F186" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187" s="10" t="s">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A187" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B187" s="10"/>
-      <c r="C187" s="9"/>
-      <c r="D187" s="9"/>
-      <c r="E187" s="9"/>
-      <c r="F187" s="9"/>
-      <c r="G187" s="18"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="5">
+        <f>AVERAGE(C182:C186)</f>
+        <v>37.6</v>
+      </c>
+      <c r="D187" s="5">
+        <f t="shared" ref="D187:F187" si="1">AVERAGE(D182:D186)</f>
+        <v>32276.2</v>
+      </c>
+      <c r="E187" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F187" s="5">
+        <f>AVERAGE(F182:F186)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A188" s="19"/>
-      <c r="B188" s="19"/>
-      <c r="C188" s="18"/>
-      <c r="D188" s="18"/>
-      <c r="E188" s="18"/>
-      <c r="F188" s="18"/>
-      <c r="G188" s="18"/>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A188" s="16"/>
+      <c r="B188" s="16"/>
+    </row>
+    <row r="189" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C189" s="12"/>
+      <c r="D189" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E189" s="12"/>
+      <c r="F189" s="29"/>
+      <c r="G189" s="29"/>
+    </row>
+    <row r="190" spans="1:18" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="31"/>
+      <c r="B190" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F190" s="29"/>
+      <c r="G190" s="29"/>
+      <c r="K190" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="L190" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="M190" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="N190" s="34"/>
+      <c r="P190" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q190" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="R190" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="5">
+        <v>100</v>
+      </c>
+      <c r="B191" s="5">
+        <v>23</v>
+      </c>
+      <c r="C191" s="5">
+        <v>33416</v>
+      </c>
+      <c r="D191" s="5">
+        <v>24510</v>
+      </c>
+      <c r="E191" s="5">
+        <v>22634</v>
+      </c>
+      <c r="F191" s="29"/>
+      <c r="G191" s="29"/>
+      <c r="K191" s="33"/>
+      <c r="L191" s="33"/>
+      <c r="M191" s="33"/>
+      <c r="P191" s="22"/>
+      <c r="Q191" s="22"/>
+      <c r="R191" s="22"/>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A192" s="5">
+        <v>500</v>
+      </c>
+      <c r="B192" s="5">
+        <v>24</v>
+      </c>
+      <c r="C192" s="5">
+        <v>847186</v>
+      </c>
+      <c r="D192" s="5">
+        <v>131718</v>
+      </c>
+      <c r="E192" s="5">
+        <v>135114</v>
+      </c>
+      <c r="F192" s="29"/>
+      <c r="G192" s="29"/>
+      <c r="K192" s="32">
+        <v>100</v>
+      </c>
+      <c r="L192" s="5">
+        <v>23</v>
+      </c>
+      <c r="M192" s="5">
+        <v>24510</v>
+      </c>
+      <c r="P192" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q192" s="5">
+        <v>33416</v>
+      </c>
+      <c r="R192" s="5">
+        <v>22634</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A193" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B193" s="5">
+        <v>47</v>
+      </c>
+      <c r="C193" s="5">
+        <v>4201661</v>
+      </c>
+      <c r="D193" s="5">
+        <v>315210</v>
+      </c>
+      <c r="E193" s="5">
+        <v>348697</v>
+      </c>
+      <c r="F193" s="29"/>
+      <c r="G193" s="29"/>
+      <c r="K193" s="32">
+        <v>500</v>
+      </c>
+      <c r="L193" s="5">
+        <v>24</v>
+      </c>
+      <c r="M193" s="5">
+        <v>131718</v>
+      </c>
+      <c r="P193" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q193" s="5">
+        <v>847186</v>
+      </c>
+      <c r="R193" s="5">
+        <v>135114</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A194" s="5">
+        <v>5000</v>
+      </c>
+      <c r="B194" s="5">
+        <v>48</v>
+      </c>
+      <c r="C194" s="5">
+        <v>107726674</v>
+      </c>
+      <c r="D194" s="5">
+        <v>1878078</v>
+      </c>
+      <c r="E194" s="5">
+        <v>1893327</v>
+      </c>
+      <c r="F194" s="29"/>
+      <c r="G194" s="29"/>
+      <c r="K194" s="32">
+        <v>1000</v>
+      </c>
+      <c r="L194" s="5">
+        <v>47</v>
+      </c>
+      <c r="M194" s="5">
+        <v>315210</v>
+      </c>
+      <c r="P194" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q194" s="5">
+        <v>4201661</v>
+      </c>
+      <c r="R194" s="5">
+        <v>348697</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A195" s="5">
+        <v>10000</v>
+      </c>
+      <c r="B195" s="5">
+        <v>47</v>
+      </c>
+      <c r="C195" s="5">
+        <v>399759073</v>
+      </c>
+      <c r="D195" s="5">
+        <v>7247240</v>
+      </c>
+      <c r="E195" s="5">
+        <v>4438340</v>
+      </c>
+      <c r="F195" s="29"/>
+      <c r="G195" s="29"/>
+      <c r="K195" s="32">
+        <v>5000</v>
+      </c>
+      <c r="L195" s="5">
+        <v>48</v>
+      </c>
+      <c r="M195" s="5">
+        <v>1878078</v>
+      </c>
+      <c r="P195" s="5">
+        <v>5000</v>
+      </c>
+      <c r="Q195" s="5">
+        <v>107726674</v>
+      </c>
+      <c r="R195" s="5">
+        <v>1893327</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K196" s="32">
+        <v>10000</v>
+      </c>
+      <c r="L196" s="5">
+        <v>47</v>
+      </c>
+      <c r="M196" s="5">
+        <v>7247240</v>
+      </c>
+      <c r="P196" s="5">
+        <v>10000</v>
+      </c>
+      <c r="Q196" s="5">
+        <v>399759073</v>
+      </c>
+      <c r="R196" s="5">
+        <v>4438340</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="A28:XFD28"/>
-    <mergeCell ref="A150:XFD150"/>
-    <mergeCell ref="A184:B184"/>
+  <mergeCells count="61">
+    <mergeCell ref="P190:P191"/>
+    <mergeCell ref="Q190:Q191"/>
+    <mergeCell ref="R190:R191"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="K190:K191"/>
+    <mergeCell ref="L190:L191"/>
+    <mergeCell ref="M190:M191"/>
+    <mergeCell ref="A142:J142"/>
+    <mergeCell ref="A145:J145"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A100:J100"/>
+    <mergeCell ref="A120:J120"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
     <mergeCell ref="A185:B185"/>
     <mergeCell ref="A186:B186"/>
     <mergeCell ref="A188:B188"/>
@@ -6282,6 +6622,11 @@
     <mergeCell ref="A180:B181"/>
     <mergeCell ref="A182:B182"/>
     <mergeCell ref="A183:B183"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="A28:XFD28"/>
+    <mergeCell ref="A150:XFD150"/>
+    <mergeCell ref="A184:B184"/>
     <mergeCell ref="A169:B169"/>
     <mergeCell ref="A170:B170"/>
     <mergeCell ref="A171:B171"/>
@@ -6293,33 +6638,6 @@
     <mergeCell ref="C154:D154"/>
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A142:J142"/>
-    <mergeCell ref="A145:J145"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="A100:J100"/>
-    <mergeCell ref="A120:J120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Assignments/Simina-Dan-Marius_Tema1.xlsx
+++ b/Assignments/Simina-Dan-Marius_Tema1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Facultate\SSC\Structure-of-Computer-Systems-Labs\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F0A2D7-D80E-410A-9B78-62BFD29A9F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE1E578-F01B-41D7-848B-89CD1F056A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1D818CED-8517-412F-B847-EA1DE22B53B6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>Upper limit</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Exercitiul 2 din laboratorul 1:</t>
   </si>
   <si>
-    <t>Descriere scurta a caracteristicilor procesorului pe care s-au efectuat experimentele:</t>
-  </si>
-  <si>
     <t>Procesor: AMD Ryzen 5 4500U</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>Exercitiul 2:</t>
   </si>
   <si>
-    <t>Measurment number</t>
-  </si>
-  <si>
     <t>Average time:</t>
   </si>
   <si>
@@ -198,6 +192,18 @@
   </si>
   <si>
     <t>Array length (dynamic)</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Measurment number (n = 1000)</t>
+  </si>
+  <si>
+    <t>Pentru sortarea initiala am folosit Bubble Sort care are o complexitate O(n^2), iar pentru sortarea optimizata am folosit Quick Sort in care pivotul se alege random avand complexitatea in medie O(n * logn). Atat la sortarea initiala cat si la sortarea optimizata sunt necesare mai putine cicluri de ceas pentru a sorta vectorul static decat pentru a sorta vectorul alocat dinamic. Cand trebuie sa comparam cele doua sortari atat pentru vector static cat si pentru cel alocat dinamic sortarea optimizata necesita mult mai putine cicluri de ceas decat cea initiala.</t>
+  </si>
+  <si>
+    <t>Descriere scurta a caracteristicilor procesorului:</t>
   </si>
 </sst>
 </file>
@@ -436,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -462,11 +468,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -483,26 +492,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -510,7 +507,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -522,9 +528,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -532,13 +535,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2108,6 +2111,916 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Initial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Optimized (static array)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13841991644535556"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.83265174693400013"/>
+          <c:h val="0.6153546952464275"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$202</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Initial sort time (clock cycles)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$204:$C$208</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$204:$D$208</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>158467</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4950435.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20251085.800000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>469345581.19999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1849103738.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-22E4-4E62-9787-AB33097EF333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$202</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimized sort time (clock cycles)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$204:$C$208</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$204:$E$208</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>77596.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>486730.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>965057.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9954931.6999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17456346.899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-22E4-4E62-9787-AB33097EF333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="727175183"/>
+        <c:axId val="727175663"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="727175183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727175663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="727175663"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727175183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Initial vs Optimized (dynamic array)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14913541337286756"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.82189816134734306"/>
+          <c:h val="0.6153546952464275"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$220</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Initial sort time (clock cycles)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$222:$C$226</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$222:$D$226</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>315137.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4709599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22391402.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>474156147.19999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1867468112.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B651-41C7-AF19-75D495AF15C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$220</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimized sort time (clock cycles)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$222:$C$226</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$222:$E$226</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>77912.100000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>687327.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1023687.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10911489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16138333.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B651-41C7-AF19-75D495AF15C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="616131663"/>
+        <c:axId val="724900240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="616131663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="724900240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="724900240"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="616131663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2352,6 +3265,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4417,6 +5410,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5202,6 +7227,78 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC0DC8C7-1609-56B3-CAD2-BBC90B6726EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5D3DE9-2E6C-8496-13BA-0DA5FB0BFB23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5522,10 +7619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD50B70-FD92-48AC-B906-80C36613CDF1}">
-  <dimension ref="A1:R196"/>
+  <dimension ref="A1:N241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H181" workbookViewId="0">
-      <selection activeCell="K202" sqref="K202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5533,53 +7630,48 @@
     <col min="1" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:1" s="33" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+    <row r="21" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+    <row r="22" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+    <row r="23" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+    <row r="24" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+    <row r="25" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+    <row r="26" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="13" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:9" s="14" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5807,252 +7899,252 @@
       <c r="I39" s="4"/>
     </row>
     <row r="58" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
     </row>
     <row r="78" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
     </row>
     <row r="100" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="25"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
     </row>
     <row r="120" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="25" t="s">
+      <c r="A120" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="25"/>
-      <c r="H120" s="25"/>
-      <c r="I120" s="25"/>
-      <c r="J120" s="25"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
     </row>
     <row r="142" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="25" t="s">
+      <c r="A142" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B142" s="25"/>
-      <c r="C142" s="25"/>
-      <c r="D142" s="25"/>
-      <c r="E142" s="25"/>
-      <c r="F142" s="25"/>
-      <c r="G142" s="25"/>
-      <c r="H142" s="25"/>
-      <c r="I142" s="25"/>
-      <c r="J142" s="25"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
     </row>
     <row r="145" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="25" t="s">
+      <c r="A145" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B145" s="25"/>
-      <c r="C145" s="25"/>
-      <c r="D145" s="25"/>
-      <c r="E145" s="25"/>
-      <c r="F145" s="25"/>
-      <c r="G145" s="25"/>
-      <c r="H145" s="25"/>
-      <c r="I145" s="25"/>
-      <c r="J145" s="25"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="11"/>
     </row>
-    <row r="150" spans="1:10" s="13" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A150" s="13" t="s">
-        <v>31</v>
+    <row r="150" spans="1:10" s="14" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A150" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="23" t="s">
+      <c r="A154" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B154" s="21"/>
+      <c r="C154" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B154" s="24"/>
-      <c r="C154" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D154" s="24"/>
+      <c r="D154" s="21"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A155" s="14">
+      <c r="A155" s="15">
         <v>1</v>
       </c>
-      <c r="B155" s="15"/>
-      <c r="C155" s="14">
+      <c r="B155" s="16"/>
+      <c r="C155" s="15">
         <v>1306</v>
       </c>
-      <c r="D155" s="15"/>
+      <c r="D155" s="16"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A156" s="14">
+      <c r="A156" s="15">
         <v>2</v>
       </c>
-      <c r="B156" s="15"/>
-      <c r="C156" s="14">
+      <c r="B156" s="16"/>
+      <c r="C156" s="15">
         <v>1282</v>
       </c>
-      <c r="D156" s="15"/>
+      <c r="D156" s="16"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A157" s="14">
+      <c r="A157" s="15">
         <v>3</v>
       </c>
-      <c r="B157" s="15"/>
-      <c r="C157" s="14">
+      <c r="B157" s="16"/>
+      <c r="C157" s="15">
         <v>1307</v>
       </c>
-      <c r="D157" s="15"/>
+      <c r="D157" s="16"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A158" s="14">
+      <c r="A158" s="15">
         <v>4</v>
       </c>
-      <c r="B158" s="15"/>
-      <c r="C158" s="14">
+      <c r="B158" s="16"/>
+      <c r="C158" s="15">
         <v>1306</v>
       </c>
-      <c r="D158" s="15"/>
+      <c r="D158" s="16"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A159" s="14">
+      <c r="A159" s="15">
         <v>5</v>
       </c>
-      <c r="B159" s="15"/>
-      <c r="C159" s="14">
+      <c r="B159" s="16"/>
+      <c r="C159" s="15">
         <v>1330</v>
       </c>
-      <c r="D159" s="15"/>
+      <c r="D159" s="16"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A160" s="14">
+      <c r="A160" s="15">
         <v>6</v>
       </c>
-      <c r="B160" s="15"/>
-      <c r="C160" s="14">
+      <c r="B160" s="16"/>
+      <c r="C160" s="15">
         <v>1306</v>
       </c>
-      <c r="D160" s="15"/>
+      <c r="D160" s="16"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="14">
+      <c r="A161" s="15">
         <v>7</v>
       </c>
-      <c r="B161" s="15"/>
-      <c r="C161" s="14">
+      <c r="B161" s="16"/>
+      <c r="C161" s="15">
         <v>1353</v>
       </c>
-      <c r="D161" s="15"/>
+      <c r="D161" s="16"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="14">
+      <c r="A162" s="15">
         <v>8</v>
       </c>
-      <c r="B162" s="15"/>
-      <c r="C162" s="14">
+      <c r="B162" s="16"/>
+      <c r="C162" s="15">
         <v>1330</v>
       </c>
-      <c r="D162" s="15"/>
+      <c r="D162" s="16"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" s="14">
+      <c r="A163" s="15">
         <v>9</v>
       </c>
-      <c r="B163" s="15"/>
-      <c r="C163" s="14">
+      <c r="B163" s="16"/>
+      <c r="C163" s="15">
         <v>1520</v>
       </c>
-      <c r="D163" s="15"/>
+      <c r="D163" s="16"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" s="14">
+      <c r="A164" s="15">
         <v>10</v>
       </c>
-      <c r="B164" s="15"/>
-      <c r="C164" s="14">
+      <c r="B164" s="16"/>
+      <c r="C164" s="15">
         <v>1306</v>
       </c>
-      <c r="D164" s="15"/>
+      <c r="D164" s="16"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B165" s="15"/>
-      <c r="C165" s="14">
+      <c r="A165" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B165" s="18"/>
+      <c r="C165" s="18">
         <f>AVERAGE(C155:D164)</f>
         <v>1334.6</v>
       </c>
-      <c r="D165" s="15"/>
+      <c r="D165" s="18"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="14"/>
-      <c r="B166" s="15"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="15"/>
+      <c r="A166" s="19"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
     </row>
     <row r="169" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B169" s="22"/>
+      <c r="A169" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B169" s="17"/>
       <c r="C169" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D169" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="E169" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E169" s="5" t="s">
+      <c r="F169" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F169" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="G169" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="14">
+      <c r="A170" s="15">
         <v>1</v>
       </c>
-      <c r="B170" s="15"/>
+      <c r="B170" s="16"/>
       <c r="C170" s="5">
         <v>25</v>
       </c>
@@ -6070,10 +8162,10 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" s="14">
+      <c r="A171" s="15">
         <v>2</v>
       </c>
-      <c r="B171" s="15"/>
+      <c r="B171" s="16"/>
       <c r="C171" s="5">
         <v>24</v>
       </c>
@@ -6091,10 +8183,10 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A172" s="14">
+      <c r="A172" s="15">
         <v>3</v>
       </c>
-      <c r="B172" s="15"/>
+      <c r="B172" s="16"/>
       <c r="C172" s="5">
         <v>0</v>
       </c>
@@ -6112,10 +8204,10 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="14">
+      <c r="A173" s="15">
         <v>4</v>
       </c>
-      <c r="B173" s="15"/>
+      <c r="B173" s="16"/>
       <c r="C173" s="5">
         <v>24</v>
       </c>
@@ -6133,10 +8225,10 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="14">
+      <c r="A174" s="15">
         <v>5</v>
       </c>
-      <c r="B174" s="15"/>
+      <c r="B174" s="16"/>
       <c r="C174" s="5">
         <v>190</v>
       </c>
@@ -6154,10 +8246,10 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B175" s="15"/>
+      <c r="A175" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B175" s="16"/>
       <c r="C175" s="5">
         <f>AVERAGE(C170:C174)</f>
         <v>52.6</v>
@@ -6179,413 +8271,519 @@
         <v>2731.6</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="9.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" spans="1:14" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B180" s="23"/>
+      <c r="C180" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D180" s="13"/>
+      <c r="E180" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F180" s="13"/>
+    </row>
+    <row r="181" spans="1:14" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="24"/>
+      <c r="B181" s="25"/>
+      <c r="C181" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A182" s="15">
+        <v>1</v>
+      </c>
+      <c r="B182" s="16"/>
+      <c r="C182" s="5">
+        <v>20694861.899999999</v>
+      </c>
+      <c r="D182" s="5">
+        <v>18076963.600000001</v>
+      </c>
+      <c r="E182" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="F182" s="5">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A183" s="15">
+        <v>2</v>
+      </c>
+      <c r="B183" s="16"/>
+      <c r="C183" s="5">
+        <v>18292081.699999999</v>
+      </c>
+      <c r="D183" s="5">
+        <v>19758439.399999999</v>
+      </c>
+      <c r="E183" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="F183" s="5">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A184" s="15">
+        <v>3</v>
+      </c>
+      <c r="B184" s="16"/>
+      <c r="C184" s="5">
+        <v>18942220.699999999</v>
+      </c>
+      <c r="D184" s="5">
+        <v>22663515.699999999</v>
+      </c>
+      <c r="E184" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="F184" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A185" s="15">
+        <v>4</v>
+      </c>
+      <c r="B185" s="16"/>
+      <c r="C185" s="5">
+        <v>18724352.600000001</v>
+      </c>
+      <c r="D185" s="5">
+        <v>19488017.100000001</v>
+      </c>
+      <c r="E185" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="F185" s="5">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A186" s="15">
+        <v>5</v>
+      </c>
+      <c r="B186" s="16"/>
+      <c r="C186" s="5">
+        <v>17771512.300000001</v>
+      </c>
+      <c r="D186" s="5">
+        <v>17537372.699999999</v>
+      </c>
+      <c r="E186" s="6">
+        <v>8</v>
+      </c>
+      <c r="F186" s="5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A187" s="18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="179" spans="1:18" ht="9.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" spans="1:18" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B180" s="19"/>
-      <c r="C180" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D180" s="12"/>
-      <c r="E180" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F180" s="12"/>
-    </row>
-    <row r="181" spans="1:18" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="20"/>
-      <c r="B181" s="21"/>
-      <c r="C181" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E181" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F181" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A182" s="14">
-        <v>1</v>
-      </c>
-      <c r="B182" s="15"/>
-      <c r="C182" s="5">
-        <v>47</v>
-      </c>
-      <c r="D182" s="5">
-        <v>32181</v>
-      </c>
-      <c r="E182" s="6">
-        <v>0</v>
-      </c>
-      <c r="F182" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A183" s="14">
-        <v>2</v>
-      </c>
-      <c r="B183" s="15"/>
-      <c r="C183" s="5">
-        <v>23</v>
-      </c>
-      <c r="D183" s="5">
-        <v>32490</v>
-      </c>
-      <c r="E183" s="6">
-        <v>0</v>
-      </c>
-      <c r="F183" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A184" s="14">
-        <v>3</v>
-      </c>
-      <c r="B184" s="15"/>
-      <c r="C184" s="5">
-        <v>48</v>
-      </c>
-      <c r="D184" s="5">
-        <v>33440</v>
-      </c>
-      <c r="E184" s="6">
-        <v>0</v>
-      </c>
-      <c r="F184" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A185" s="14">
-        <v>4</v>
-      </c>
-      <c r="B185" s="15"/>
-      <c r="C185" s="5">
-        <v>23</v>
-      </c>
-      <c r="D185" s="5">
-        <v>31279</v>
-      </c>
-      <c r="E185" s="6">
-        <v>0</v>
-      </c>
-      <c r="F185" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A186" s="14">
-        <v>5</v>
-      </c>
-      <c r="B186" s="15"/>
-      <c r="C186" s="5">
-        <v>47</v>
-      </c>
-      <c r="D186" s="5">
-        <v>31991</v>
-      </c>
-      <c r="E186" s="6">
-        <v>0</v>
-      </c>
-      <c r="F186" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A187" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B187" s="17"/>
+      <c r="B187" s="18"/>
       <c r="C187" s="5">
         <f>AVERAGE(C182:C186)</f>
-        <v>37.6</v>
+        <v>18885005.84</v>
       </c>
       <c r="D187" s="5">
-        <f t="shared" ref="D187:F187" si="1">AVERAGE(D182:D186)</f>
-        <v>32276.2</v>
+        <f t="shared" ref="D187:E187" si="1">AVERAGE(D182:D186)</f>
+        <v>19504861.700000003</v>
       </c>
       <c r="E187" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="F187" s="5">
         <f>AVERAGE(F182:F186)</f>
-        <v>0</v>
+        <v>8.08</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A188" s="16"/>
-      <c r="B188" s="16"/>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A188" s="19"/>
+      <c r="B188" s="19"/>
     </row>
-    <row r="189" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="30" t="s">
+    <row r="189" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C189" s="13"/>
+      <c r="D189" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B189" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C189" s="12"/>
-      <c r="D189" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E189" s="12"/>
-      <c r="F189" s="29"/>
-      <c r="G189" s="29"/>
+      <c r="E189" s="13"/>
     </row>
-    <row r="190" spans="1:18" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="31"/>
+    <row r="190" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A190" s="30"/>
       <c r="B190" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F190" s="29"/>
-      <c r="G190" s="29"/>
-      <c r="K190" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="L190" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="M190" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="N190" s="34"/>
-      <c r="P190" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q190" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="R190" s="22" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="N190" s="10"/>
     </row>
-    <row r="191" spans="1:18" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
         <v>100</v>
       </c>
       <c r="B191" s="5">
-        <v>23</v>
+        <v>158467</v>
       </c>
       <c r="C191" s="5">
-        <v>33416</v>
+        <v>315137.3</v>
       </c>
       <c r="D191" s="5">
-        <v>24510</v>
+        <v>77596.2</v>
       </c>
       <c r="E191" s="5">
-        <v>22634</v>
-      </c>
-      <c r="F191" s="29"/>
-      <c r="G191" s="29"/>
-      <c r="K191" s="33"/>
-      <c r="L191" s="33"/>
-      <c r="M191" s="33"/>
-      <c r="P191" s="22"/>
-      <c r="Q191" s="22"/>
-      <c r="R191" s="22"/>
+        <v>77912.100000000006</v>
+      </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" s="5">
         <v>500</v>
       </c>
       <c r="B192" s="5">
-        <v>24</v>
+        <v>4950435.9000000004</v>
       </c>
       <c r="C192" s="5">
-        <v>847186</v>
+        <v>4709599</v>
       </c>
       <c r="D192" s="5">
-        <v>131718</v>
+        <v>486730.1</v>
       </c>
       <c r="E192" s="5">
-        <v>135114</v>
-      </c>
-      <c r="F192" s="29"/>
-      <c r="G192" s="29"/>
-      <c r="K192" s="32">
-        <v>100</v>
-      </c>
-      <c r="L192" s="5">
-        <v>23</v>
-      </c>
-      <c r="M192" s="5">
-        <v>24510</v>
-      </c>
-      <c r="P192" s="5">
-        <v>100</v>
-      </c>
-      <c r="Q192" s="5">
-        <v>33416</v>
-      </c>
-      <c r="R192" s="5">
-        <v>22634</v>
+        <v>687327.6</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
         <v>1000</v>
       </c>
       <c r="B193" s="5">
-        <v>47</v>
+        <v>20251085.800000001</v>
       </c>
       <c r="C193" s="5">
-        <v>4201661</v>
+        <v>22391402.5</v>
       </c>
       <c r="D193" s="5">
-        <v>315210</v>
+        <v>965057.5</v>
       </c>
       <c r="E193" s="5">
-        <v>348697</v>
-      </c>
-      <c r="F193" s="29"/>
-      <c r="G193" s="29"/>
-      <c r="K193" s="32">
-        <v>500</v>
-      </c>
-      <c r="L193" s="5">
-        <v>24</v>
-      </c>
-      <c r="M193" s="5">
-        <v>131718</v>
-      </c>
-      <c r="P193" s="5">
-        <v>500</v>
-      </c>
-      <c r="Q193" s="5">
-        <v>847186</v>
-      </c>
-      <c r="R193" s="5">
-        <v>135114</v>
+        <v>1023687.1</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="5">
         <v>5000</v>
       </c>
       <c r="B194" s="5">
-        <v>48</v>
+        <v>469345581.19999999</v>
       </c>
       <c r="C194" s="5">
-        <v>107726674</v>
+        <v>474156147.19999999</v>
       </c>
       <c r="D194" s="5">
-        <v>1878078</v>
+        <v>9954931.6999999993</v>
       </c>
       <c r="E194" s="5">
-        <v>1893327</v>
-      </c>
-      <c r="F194" s="29"/>
-      <c r="G194" s="29"/>
-      <c r="K194" s="32">
-        <v>1000</v>
-      </c>
-      <c r="L194" s="5">
-        <v>47</v>
-      </c>
-      <c r="M194" s="5">
-        <v>315210</v>
-      </c>
-      <c r="P194" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Q194" s="5">
-        <v>4201661</v>
-      </c>
-      <c r="R194" s="5">
-        <v>348697</v>
+        <v>10911489</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="5">
         <v>10000</v>
       </c>
       <c r="B195" s="5">
-        <v>47</v>
+        <v>1849103738.3</v>
       </c>
       <c r="C195" s="5">
-        <v>399759073</v>
+        <v>1867468112.2</v>
       </c>
       <c r="D195" s="5">
-        <v>7247240</v>
+        <v>17456346.899999999</v>
       </c>
       <c r="E195" s="5">
-        <v>4438340</v>
-      </c>
-      <c r="F195" s="29"/>
-      <c r="G195" s="29"/>
-      <c r="K195" s="32">
+        <v>16138333.9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C202" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D202" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E202" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C203" s="31"/>
+      <c r="D203" s="31"/>
+      <c r="E203" s="31"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C204" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D204" s="5">
+        <v>158467</v>
+      </c>
+      <c r="E204" s="5">
+        <v>77596.2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C205" s="9">
+        <v>500</v>
+      </c>
+      <c r="D205" s="5">
+        <v>4950435.9000000004</v>
+      </c>
+      <c r="E205" s="5">
+        <v>486730.1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C206" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D206" s="5">
+        <v>20251085.800000001</v>
+      </c>
+      <c r="E206" s="5">
+        <v>965057.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C207" s="9">
         <v>5000</v>
       </c>
-      <c r="L195" s="5">
+      <c r="D207" s="5">
+        <v>469345581.19999999</v>
+      </c>
+      <c r="E207" s="5">
+        <v>9954931.6999999993</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C208" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D208" s="5">
+        <v>1849103738.3</v>
+      </c>
+      <c r="E208" s="5">
+        <v>17456346.899999999</v>
+      </c>
+    </row>
+    <row r="220" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C220" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D220" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M195" s="5">
-        <v>1878078</v>
-      </c>
-      <c r="P195" s="5">
+      <c r="E220" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="221" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C221" s="17"/>
+      <c r="D221" s="17"/>
+      <c r="E221" s="17"/>
+    </row>
+    <row r="222" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C222" s="5">
+        <v>100</v>
+      </c>
+      <c r="D222" s="5">
+        <v>315137.3</v>
+      </c>
+      <c r="E222" s="5">
+        <v>77912.100000000006</v>
+      </c>
+    </row>
+    <row r="223" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C223" s="5">
+        <v>500</v>
+      </c>
+      <c r="D223" s="5">
+        <v>4709599</v>
+      </c>
+      <c r="E223" s="5">
+        <v>687327.6</v>
+      </c>
+    </row>
+    <row r="224" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C224" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D224" s="5">
+        <v>22391402.5</v>
+      </c>
+      <c r="E224" s="5">
+        <v>1023687.1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C225" s="5">
         <v>5000</v>
       </c>
-      <c r="Q195" s="5">
-        <v>107726674</v>
-      </c>
-      <c r="R195" s="5">
-        <v>1893327</v>
+      <c r="D225" s="5">
+        <v>474156147.19999999</v>
+      </c>
+      <c r="E225" s="5">
+        <v>10911489</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="K196" s="32">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C226" s="5">
         <v>10000</v>
       </c>
-      <c r="L196" s="5">
-        <v>47</v>
-      </c>
-      <c r="M196" s="5">
-        <v>7247240</v>
-      </c>
-      <c r="P196" s="5">
-        <v>10000</v>
-      </c>
-      <c r="Q196" s="5">
-        <v>399759073</v>
-      </c>
-      <c r="R196" s="5">
-        <v>4438340</v>
-      </c>
+      <c r="D226" s="5">
+        <v>1867468112.2</v>
+      </c>
+      <c r="E226" s="5">
+        <v>16138333.9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A235" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B235" s="11"/>
+      <c r="C235" s="11"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
+      <c r="F235" s="11"/>
+      <c r="G235" s="11"/>
+      <c r="H235" s="11"/>
+      <c r="I235" s="11"/>
+      <c r="J235" s="11"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A236" s="11"/>
+      <c r="B236" s="11"/>
+      <c r="C236" s="11"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="11"/>
+      <c r="F236" s="11"/>
+      <c r="G236" s="11"/>
+      <c r="H236" s="11"/>
+      <c r="I236" s="11"/>
+      <c r="J236" s="11"/>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A237" s="11"/>
+      <c r="B237" s="11"/>
+      <c r="C237" s="11"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="11"/>
+      <c r="G237" s="11"/>
+      <c r="H237" s="11"/>
+      <c r="I237" s="11"/>
+      <c r="J237" s="11"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A238" s="11"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="11"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="11"/>
+      <c r="F238" s="11"/>
+      <c r="G238" s="11"/>
+      <c r="H238" s="11"/>
+      <c r="I238" s="11"/>
+      <c r="J238" s="11"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A239" s="11"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="11"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="11"/>
+      <c r="F239" s="11"/>
+      <c r="G239" s="11"/>
+      <c r="H239" s="11"/>
+      <c r="I239" s="11"/>
+      <c r="J239" s="11"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A240" s="11"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
+      <c r="F240" s="11"/>
+      <c r="G240" s="11"/>
+      <c r="H240" s="11"/>
+      <c r="I240" s="11"/>
+      <c r="J240" s="11"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A241" s="11"/>
+      <c r="B241" s="11"/>
+      <c r="C241" s="11"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
+      <c r="F241" s="11"/>
+      <c r="G241" s="11"/>
+      <c r="H241" s="11"/>
+      <c r="I241" s="11"/>
+      <c r="J241" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="P190:P191"/>
-    <mergeCell ref="Q190:Q191"/>
-    <mergeCell ref="R190:R191"/>
+  <mergeCells count="70">
+    <mergeCell ref="A25:XFD25"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="A22:XFD22"/>
+    <mergeCell ref="A23:XFD23"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="E220:E221"/>
     <mergeCell ref="A189:A190"/>
     <mergeCell ref="B189:C189"/>
     <mergeCell ref="D189:E189"/>
-    <mergeCell ref="K190:K191"/>
-    <mergeCell ref="L190:L191"/>
-    <mergeCell ref="M190:M191"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
     <mergeCell ref="A142:J142"/>
     <mergeCell ref="A145:J145"/>
     <mergeCell ref="B30:I30"/>
@@ -6598,21 +8796,16 @@
     <mergeCell ref="A156:B156"/>
     <mergeCell ref="A158:B158"/>
     <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
     <mergeCell ref="A159:B159"/>
     <mergeCell ref="A160:B160"/>
     <mergeCell ref="A161:B161"/>
     <mergeCell ref="A162:B162"/>
     <mergeCell ref="A163:B163"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C156:D156"/>
     <mergeCell ref="A185:B185"/>
     <mergeCell ref="A186:B186"/>
     <mergeCell ref="A188:B188"/>
@@ -6622,6 +8815,13 @@
     <mergeCell ref="A180:B181"/>
     <mergeCell ref="A182:B182"/>
     <mergeCell ref="A183:B183"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="A235:J241"/>
     <mergeCell ref="C180:D180"/>
     <mergeCell ref="E180:F180"/>
     <mergeCell ref="A28:XFD28"/>
@@ -6637,7 +8837,6 @@
     <mergeCell ref="A166:B166"/>
     <mergeCell ref="C154:D154"/>
     <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C156:D156"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
